--- a/webscrapping/src/test/resources/ScrapeData/Diabetic_Input.xlsx
+++ b/webscrapping/src/test/resources/ScrapeData/Diabetic_Input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Reka\eclipse-workspace\webscrapping\src\test\resources\ScrapeData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D54FDB0D-EFFF-45FE-8BD5-C1BAFE21ACE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14695D65-0479-4372-AE23-8475F38624B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-168" yWindow="912" windowWidth="11076" windowHeight="11292" firstSheet="2" activeTab="3" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="2" activeTab="3" xr2:uid="{F34155E5-6A8B-4E39-8975-29262B9CAC9B}"/>
   </bookViews>
   <sheets>
     <sheet name="diabetic_list" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="96">
   <si>
     <t>Jain Diabetic</t>
   </si>
@@ -272,9 +272,6 @@
     <t>allergy</t>
   </si>
   <si>
-    <t>Milk</t>
-  </si>
-  <si>
     <t>Soy</t>
   </si>
   <si>
@@ -314,92 +311,29 @@
     <t>To add</t>
   </si>
   <si>
-    <t>Broccoli</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>Pumpkin seeds</t>
-  </si>
-  <si>
-    <t>Flaxseeds</t>
-  </si>
-  <si>
-    <t>Apples</t>
-  </si>
-  <si>
-    <t>Nuts</t>
-  </si>
-  <si>
-    <t>Lady finger</t>
-  </si>
-  <si>
-    <t>Beans</t>
-  </si>
-  <si>
-    <t>Berries</t>
-  </si>
-  <si>
-    <t>Eggs</t>
-  </si>
-  <si>
-    <t>Yogurt</t>
-  </si>
-  <si>
-    <t>Bitter gaurd</t>
-  </si>
-  <si>
-    <t>Rolled oats</t>
-  </si>
-  <si>
-    <t>chicken</t>
-  </si>
-  <si>
-    <t>fish</t>
-  </si>
-  <si>
-    <t>quinoa</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>Chia sedds</t>
-  </si>
-  <si>
-    <t>raspberries</t>
-  </si>
-  <si>
-    <t>blueberries</t>
-  </si>
-  <si>
-    <t>blackberries</t>
-  </si>
-  <si>
-    <t>strawberries</t>
-  </si>
-  <si>
-    <t>seeds</t>
-  </si>
-  <si>
-    <t>Okra</t>
-  </si>
-  <si>
-    <t>Steel cut oats</t>
-  </si>
-  <si>
     <t>Vegan Diabetic</t>
   </si>
   <si>
     <t>Diabetic recipes</t>
+  </si>
+  <si>
+    <t>onion</t>
+  </si>
+  <si>
+    <t>milk</t>
+  </si>
+  <si>
+    <t>gold</t>
+  </si>
+  <si>
+    <t>rice</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,12 +379,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -466,7 +394,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -489,6 +417,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -507,7 +446,9 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -848,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -880,7 +821,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -1264,10 +1205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54C99907-8683-4A9F-8FD9-16FE22365BF6}">
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1:A15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1279,67 +1220,72 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="27.6">
       <c r="A13" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="7" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1349,299 +1295,28 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A72BD74B-1EC9-496F-A581-086136459EDA}">
-  <dimension ref="A1:A77"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
-  <cols>
-    <col min="1" max="1" width="26.44140625" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A3" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1"/>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="1"/>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" s="1"/>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" s="1"/>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" ht="15.6">
-      <c r="A72" s="7"/>
-    </row>
-    <row r="73" spans="1:1" ht="15.6">
-      <c r="A73" s="7"/>
-    </row>
-    <row r="74" spans="1:1" ht="15.6">
-      <c r="A74" s="7"/>
-    </row>
-    <row r="75" spans="1:1" ht="15.6">
-      <c r="A75" s="7"/>
-    </row>
-    <row r="76" spans="1:1" ht="15.6">
-      <c r="A76" s="7"/>
-    </row>
-    <row r="77" spans="1:1" ht="15.6">
-      <c r="A77" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
